--- a/medicine/Médecine vétérinaire/Machaerilaemus_malleus/Machaerilaemus_malleus.xlsx
+++ b/medicine/Médecine vétérinaire/Machaerilaemus_malleus/Machaerilaemus_malleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Machaerilaemus malleus est une espèce d'insectes phthiraptères de la famille des Menoponidae. Il s'agit d'un pou parasite des oiseaux que l'on trouve principalement sur les hirondelles, et plus précisément sur l'Hirondelle rustique, l'Hirondelle striée et l'Hirondelle sud-africaine.
 </t>
